--- a/biology/Zoologie/Carpophage_de_Micronésie/Carpophage_de_Micronésie.xlsx
+++ b/biology/Zoologie/Carpophage_de_Micronésie/Carpophage_de_Micronésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carpophage_de_Micron%C3%A9sie</t>
+          <t>Carpophage_de_Micronésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula oceanica
 Le Carpophage de Micronésie (Ducula oceanica) est une espèce d'oiseaux de la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carpophage_de_Micron%C3%A9sie</t>
+          <t>Carpophage_de_Micronésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 41 à 46 cm de longueur pour une masse de 340 à 410 g. La femelle est un peu plus petite que le mâle.
 La tête, le cou et la poitrine sont gris. Le ventre et les sous-caudales brun roux. Les parties supérieures sont noirâtres nuancées de bleu verdâtre. Le bec est noir avec une protubérance à la base de la mandibule supérieure. Les pattes sont rougeâtres.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carpophage_de_Micron%C3%A9sie</t>
+          <t>Carpophage_de_Micronésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les petites îles de la Micronésie (États fédérés de Micronésie, îles Marshall, Kiribati, Nauru, Palaos).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carpophage_de_Micron%C3%A9sie</t>
+          <t>Carpophage_de_Micronésie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente surtout les forêts montagneuses et parfois les mangroves.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carpophage_de_Micron%C3%A9sie</t>
+          <t>Carpophage_de_Micronésie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les espèces de carpophages, cet oiseau consomme essentiellement des fruits qu'il prélève surtout dans la canopée.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carpophage_de_Micron%C3%A9sie</t>
+          <t>Carpophage_de_Micronésie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid n'est constitué que de quelques brindilles disposées à la fourche d'une branche. La femelle ne pond qu'un seul œuf.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carpophage_de_Micron%C3%A9sie</t>
+          <t>Carpophage_de_Micronésie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,9 +690,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon le Congrès ornithologique international[1] et Alan P. Peterson[2] il existe cinq sous-espèces, différenciées essentiellement par leurs tailles :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon le Congrès ornithologique international et Alan P. Peterson il existe cinq sous-espèces, différenciées essentiellement par leurs tailles :
 Ducula oceanica monacha (Momiyama, 1922) avec la tête, le cou et la poitrine gris pâle ;
 Ducula oceanica teraokai (Momiyama, 1922) ;
 Ducula oceanica townsendi (Wetmore, 1919) ;
